--- a/results/plots/M.xlsx
+++ b/results/plots/M.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="22995" windowHeight="10035" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="4" r:id="rId1"/>
@@ -58,13 +58,13 @@
     <t>Clients count (M) = 10</t>
   </si>
   <si>
-    <t>Delay (?) = 10</t>
-  </si>
-  <si>
     <t>Requests count (X) = 10</t>
   </si>
   <si>
-    <t>Change Clients count (M) from 10 to 20 with step 1</t>
+    <t>Change Clients count (M) from 10 to 60 with step 5</t>
+  </si>
+  <si>
+    <t>Delay (∆) = 0</t>
   </si>
 </sst>
 </file>
@@ -164,34 +164,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -203,37 +203,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>476.2</c:v>
+                  <c:v>528.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>503.18181800000002</c:v>
+                  <c:v>610.26666699999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>613.33333300000004</c:v>
+                  <c:v>798.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>637.53846199999998</c:v>
+                  <c:v>948.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>668.78571399999998</c:v>
+                  <c:v>1005.833333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>692.06666700000005</c:v>
+                  <c:v>1314.9142859999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>696.6875</c:v>
+                  <c:v>1382.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>750.70588199999997</c:v>
+                  <c:v>1664.377778</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>778.44444399999998</c:v>
+                  <c:v>1734.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>784.684211</c:v>
+                  <c:v>1704.963636</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>879.95</c:v>
+                  <c:v>2118.0166669999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -267,34 +267,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -306,37 +306,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>517</c:v>
+                  <c:v>368.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>552.63636399999996</c:v>
+                  <c:v>516.66666699999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>604.5</c:v>
+                  <c:v>689.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>638.38461500000005</c:v>
+                  <c:v>848.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>648.85714299999995</c:v>
+                  <c:v>974.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>670.2</c:v>
+                  <c:v>1161.6571429999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>682</c:v>
+                  <c:v>1349.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>705.47058800000002</c:v>
+                  <c:v>1391.9777779999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>772.11111100000005</c:v>
+                  <c:v>1590.84</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>759.57894699999997</c:v>
+                  <c:v>1823.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>806.8</c:v>
+                  <c:v>1938.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -370,34 +370,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -409,37 +409,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1164.4000000000001</c:v>
+                  <c:v>1014.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1294.636364</c:v>
+                  <c:v>1774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1434.666667</c:v>
+                  <c:v>2016.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1416.3076920000001</c:v>
+                  <c:v>2607.3200000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1476.857143</c:v>
+                  <c:v>3116.833333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1627.4666669999999</c:v>
+                  <c:v>3587.2571429999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1788.1875</c:v>
+                  <c:v>4149.4750000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1878.176471</c:v>
+                  <c:v>4570.9777780000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1968.1111109999999</c:v>
+                  <c:v>5382.14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2077.1578949999998</c:v>
+                  <c:v>5423.3272729999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2228</c:v>
+                  <c:v>5596.2666669999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,34 +473,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -512,37 +512,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>228.7</c:v>
+                  <c:v>135.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>233.727273</c:v>
+                  <c:v>138.533333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>233.41666699999999</c:v>
+                  <c:v>150.94999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>242</c:v>
+                  <c:v>142.47999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>237.92857100000001</c:v>
+                  <c:v>147.466667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>236.86666700000001</c:v>
+                  <c:v>147.085714</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>249.375</c:v>
+                  <c:v>147.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>239.64705900000001</c:v>
+                  <c:v>142.11111099999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>248.444444</c:v>
+                  <c:v>151.84</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>241.94736800000001</c:v>
+                  <c:v>149.03636399999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>243.7</c:v>
+                  <c:v>146.23333299999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -576,34 +576,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,37 +615,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3615.1</c:v>
+                  <c:v>3573.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>564.81818199999998</c:v>
+                  <c:v>560.66666699999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>561.66666699999996</c:v>
+                  <c:v>663.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>584.23076900000001</c:v>
+                  <c:v>832.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>625.71428600000002</c:v>
+                  <c:v>989.03333299999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>687.46666700000003</c:v>
+                  <c:v>1141.6571429999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>689.25</c:v>
+                  <c:v>1336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>745.11764700000003</c:v>
+                  <c:v>1508.355556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>769.05555600000002</c:v>
+                  <c:v>1577.18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>790.73684200000002</c:v>
+                  <c:v>1759.8727269999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>860.55</c:v>
+                  <c:v>1873.916667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -679,34 +679,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,37 +718,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>442.4</c:v>
+                  <c:v>349.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>521.90909099999999</c:v>
+                  <c:v>523.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>514.91666699999996</c:v>
+                  <c:v>673.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>570.46153800000002</c:v>
+                  <c:v>785.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>581.14285700000005</c:v>
+                  <c:v>950.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>633.46666700000003</c:v>
+                  <c:v>1095.857143</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>679.8125</c:v>
+                  <c:v>1324.85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>751.05882399999996</c:v>
+                  <c:v>1444.1555559999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>717.72222199999999</c:v>
+                  <c:v>1605.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>721.73684200000002</c:v>
+                  <c:v>1701.254545</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>831.2</c:v>
+                  <c:v>1926.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -782,34 +782,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,37 +821,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>484.7</c:v>
+                  <c:v>355.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>516.45454500000005</c:v>
+                  <c:v>495</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>674.5</c:v>
+                  <c:v>685.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>532.69230800000003</c:v>
+                  <c:v>774.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>575.92857100000003</c:v>
+                  <c:v>1075.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>681.86666700000001</c:v>
+                  <c:v>1143.4571430000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>653.1875</c:v>
+                  <c:v>1275.125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>722.23529399999995</c:v>
+                  <c:v>1374.444444</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>717.94444399999998</c:v>
+                  <c:v>1597.76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>763.42105300000003</c:v>
+                  <c:v>1758.3090910000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>825.1</c:v>
+                  <c:v>1890.2666670000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,34 +885,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,37 +924,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>477.5</c:v>
+                  <c:v>358.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501.81818199999998</c:v>
+                  <c:v>520.93333299999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>571.75</c:v>
+                  <c:v>677.45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>603.92307700000003</c:v>
+                  <c:v>797.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>590</c:v>
+                  <c:v>974.13333299999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>659.33333300000004</c:v>
+                  <c:v>1161.142857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>647.0625</c:v>
+                  <c:v>1207.4749999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>693.52941199999998</c:v>
+                  <c:v>1422</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>768.61111100000005</c:v>
+                  <c:v>1540.38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>798.47368400000005</c:v>
+                  <c:v>1767.818182</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>795</c:v>
+                  <c:v>1863.7333329999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,34 +988,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,37 +1027,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>526.29999999999995</c:v>
+                  <c:v>939.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>379.36363599999999</c:v>
+                  <c:v>408.73333300000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>399.5</c:v>
+                  <c:v>634.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.38461500000005</c:v>
+                  <c:v>744.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>563.35714299999995</c:v>
+                  <c:v>821.56666700000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>503.13333299999999</c:v>
+                  <c:v>976.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>545.125</c:v>
+                  <c:v>1046.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>610.05882399999996</c:v>
+                  <c:v>1220.133333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>668.72222199999999</c:v>
+                  <c:v>1319.52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>632.36842100000001</c:v>
+                  <c:v>1469.6545450000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>867.2</c:v>
+                  <c:v>1603.2333329999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,34 +1091,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,37 +1130,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>378.3</c:v>
+                  <c:v>322.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>420.09090900000001</c:v>
+                  <c:v>480.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>461.41666700000002</c:v>
+                  <c:v>571.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>496.84615400000001</c:v>
+                  <c:v>771.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>440.5</c:v>
+                  <c:v>925.16666699999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>591.06666700000005</c:v>
+                  <c:v>1170.7142859999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>595.75</c:v>
+                  <c:v>1190.45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>563.94117600000004</c:v>
+                  <c:v>1357.5777780000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>635</c:v>
+                  <c:v>1468.46</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>636.52631599999995</c:v>
+                  <c:v>1644.6909089999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>795.15</c:v>
+                  <c:v>1759.9666669999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,11 +1177,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88145408"/>
-        <c:axId val="64537152"/>
+        <c:axId val="95948288"/>
+        <c:axId val="76653696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88145408"/>
+        <c:axId val="95948288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,7 +1191,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64537152"/>
+        <c:crossAx val="76653696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1199,7 +1199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64537152"/>
+        <c:axId val="76653696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88145408"/>
+        <c:crossAx val="95948288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1279,34 +1279,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,37 +1318,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>469.2</c:v>
+                  <c:v>14.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>496.36363599999999</c:v>
+                  <c:v>7.5333329999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>596.83333300000004</c:v>
+                  <c:v>5.9749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>635.07692299999997</c:v>
+                  <c:v>5.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>656.35714299999995</c:v>
+                  <c:v>5.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>676.33333300000004</c:v>
+                  <c:v>5.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>689.125</c:v>
+                  <c:v>11.9275</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>740.52941199999998</c:v>
+                  <c:v>8.0822219999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>765.5</c:v>
+                  <c:v>9.1259999999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>769.52631599999995</c:v>
+                  <c:v>8.2690909999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>873.3</c:v>
+                  <c:v>7.5066670000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,34 +1382,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,37 +1421,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>504</c:v>
+                  <c:v>3.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>543.18181800000002</c:v>
+                  <c:v>4.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>588.75</c:v>
+                  <c:v>5.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>631</c:v>
+                  <c:v>4.8760000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>634.14285700000005</c:v>
+                  <c:v>5.2933329999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>659.66666699999996</c:v>
+                  <c:v>6.0257139999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>674</c:v>
+                  <c:v>9.3949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>701.11764700000003</c:v>
+                  <c:v>7.3111110000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>761.05555600000002</c:v>
+                  <c:v>8.2140000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>755.315789</c:v>
+                  <c:v>9.263636</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>792.65</c:v>
+                  <c:v>8.9183330000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1485,34 +1485,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1524,37 +1524,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>11.85</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.054544999999999</c:v>
+                  <c:v>0.906667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.35</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.8</c:v>
+                  <c:v>0.85599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.692857</c:v>
+                  <c:v>0.843333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.92</c:v>
+                  <c:v>0.882857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.5</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.288235</c:v>
+                  <c:v>0.88666699999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.011111</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.168421</c:v>
+                  <c:v>0.83818199999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.31</c:v>
+                  <c:v>0.86333300000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1588,34 +1588,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1627,37 +1627,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>223.3</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>232.81818200000001</c:v>
+                  <c:v>6.5133330000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>229.41666699999999</c:v>
+                  <c:v>6.4349999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>231.53846200000001</c:v>
+                  <c:v>6.7839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>232.64285699999999</c:v>
+                  <c:v>6.9866669999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>234.13333299999999</c:v>
+                  <c:v>7.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>240.875</c:v>
+                  <c:v>6.9874999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>234.588235</c:v>
+                  <c:v>6.0955560000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>245</c:v>
+                  <c:v>6.52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>242.263158</c:v>
+                  <c:v>7.0218179999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>238.75</c:v>
+                  <c:v>6.8333329999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1691,34 +1691,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1730,37 +1730,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>601.70000000000005</c:v>
+                  <c:v>13.027272999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>554.36363600000004</c:v>
+                  <c:v>11.678788000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>552.75</c:v>
+                  <c:v>5.7181819999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>575.30769199999997</c:v>
+                  <c:v>7.9018179999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>614.85714299999995</c:v>
+                  <c:v>5.8787880000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>673.8</c:v>
+                  <c:v>6.841558</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>683.625</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>709.82352900000001</c:v>
+                  <c:v>6.9939390000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>747.77777800000001</c:v>
+                  <c:v>12.425454999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>780.84210499999995</c:v>
+                  <c:v>6.8264459999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>846.2</c:v>
+                  <c:v>8.9227270000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1794,34 +1794,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1833,37 +1833,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>428.8</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>510.90909099999999</c:v>
+                  <c:v>4.0484850000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>502.91666700000002</c:v>
+                  <c:v>4.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>563.23076900000001</c:v>
+                  <c:v>4.763636</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>575</c:v>
+                  <c:v>4.4727269999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>618</c:v>
+                  <c:v>5.6493510000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>672</c:v>
+                  <c:v>7.6159090000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>743.17647099999999</c:v>
+                  <c:v>6.0949489999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>705.44444399999998</c:v>
+                  <c:v>6.4818179999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>709.315789</c:v>
+                  <c:v>6.7537190000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>811.05</c:v>
+                  <c:v>6.9393940000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1897,34 +1897,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1936,37 +1936,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>472.8</c:v>
+                  <c:v>4.236364</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>506.545455</c:v>
+                  <c:v>5.206061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>665.66666699999996</c:v>
+                  <c:v>5.3863640000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>522.07692299999997</c:v>
+                  <c:v>6.0727270000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>560.35714299999995</c:v>
+                  <c:v>11.133333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>664.73333300000002</c:v>
+                  <c:v>6.2441560000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>648.0625</c:v>
+                  <c:v>6.4022730000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>705.58823500000005</c:v>
+                  <c:v>6.8323229999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>710.61111100000005</c:v>
+                  <c:v>7.6345450000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>746.26315799999998</c:v>
+                  <c:v>8.5801649999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>808.9</c:v>
+                  <c:v>7.5893940000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2000,34 +2000,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2039,37 +2039,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>467.8</c:v>
+                  <c:v>3.6090909999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>487.72727300000003</c:v>
+                  <c:v>4.1757580000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>560.08333300000004</c:v>
+                  <c:v>5.3227270000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>599.30769199999997</c:v>
+                  <c:v>5.1818179999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>585.14285700000005</c:v>
+                  <c:v>5.6212119999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>639.53333299999997</c:v>
+                  <c:v>5.3298699999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>632.8125</c:v>
+                  <c:v>5.9681819999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>678.76470600000005</c:v>
+                  <c:v>6.4202019999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>753.83333300000004</c:v>
+                  <c:v>7.3145449999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>783.21052599999996</c:v>
+                  <c:v>7.4826449999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>787.85</c:v>
+                  <c:v>8.6803030000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,34 +2103,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2142,37 +2142,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.663265</c:v>
+                  <c:v>7.505376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5545449999999992</c:v>
+                  <c:v>16.153333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4</c:v>
+                  <c:v>17.348485</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.953125</c:v>
+                  <c:v>17.902833999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.192857</c:v>
+                  <c:v>26.579125000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.886666999999999</c:v>
+                  <c:v>26.696793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.49375</c:v>
+                  <c:v>32.095717999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.023529</c:v>
+                  <c:v>42.826185000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.129944</c:v>
+                  <c:v>49.486922</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.910526000000001</c:v>
+                  <c:v>48.591760000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.010308999999999</c:v>
+                  <c:v>58.889077999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2206,34 +2206,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2245,37 +2245,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.51</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.827273</c:v>
+                  <c:v>18.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.725</c:v>
+                  <c:v>17.445</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.147287</c:v>
+                  <c:v>40.927999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>47.882154999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.905405</c:v>
+                  <c:v>70.44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.031447</c:v>
+                  <c:v>58.197468000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.658823999999999</c:v>
+                  <c:v>97.397778000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.286517</c:v>
+                  <c:v>98.536145000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.936841999999999</c:v>
+                  <c:v>105.925455</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.945</c:v>
+                  <c:v>129.88480799999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,11 +2292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94751744"/>
-        <c:axId val="64539456"/>
+        <c:axId val="96160768"/>
+        <c:axId val="76656000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94751744"/>
+        <c:axId val="96160768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,7 +2306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64539456"/>
+        <c:crossAx val="76656000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2314,7 +2314,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64539456"/>
+        <c:axId val="76656000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2325,13 +2325,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94751744"/>
+        <c:crossAx val="96160768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2393,34 +2394,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2432,37 +2433,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.02</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.118182</c:v>
+                  <c:v>4.9133329999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1583330000000001</c:v>
+                  <c:v>2.5350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.776923</c:v>
+                  <c:v>1.492</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7785709999999999</c:v>
+                  <c:v>1.9166669999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.26</c:v>
+                  <c:v>2.0114290000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3187500000000001</c:v>
+                  <c:v>6.69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.017647</c:v>
+                  <c:v>1.4466669999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5611109999999999</c:v>
+                  <c:v>2.048</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.731579</c:v>
+                  <c:v>1.8145450000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.56</c:v>
+                  <c:v>1.851667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2496,34 +2497,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2535,37 +2536,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0900000000000001</c:v>
+                  <c:v>1.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56363600000000003</c:v>
+                  <c:v>1.413333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65833299999999995</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36153800000000003</c:v>
+                  <c:v>1.4319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0071429999999999</c:v>
+                  <c:v>1.296667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.253333</c:v>
+                  <c:v>1.245714</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.25</c:v>
+                  <c:v>2.4249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.84117600000000003</c:v>
+                  <c:v>1.586667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3111109999999999</c:v>
+                  <c:v>1.51</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1473679999999999</c:v>
+                  <c:v>1.387273</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.87</c:v>
+                  <c:v>1.7833330000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2599,34 +2600,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2638,37 +2639,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.41</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56363600000000003</c:v>
+                  <c:v>0.68666700000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51666699999999999</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85384599999999999</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33571400000000001</c:v>
+                  <c:v>0.656667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73333300000000001</c:v>
+                  <c:v>0.67142900000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6875</c:v>
+                  <c:v>0.65749999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64705900000000005</c:v>
+                  <c:v>0.68888899999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52777799999999997</c:v>
+                  <c:v>0.61799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.057895</c:v>
+                  <c:v>0.64909099999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.78500000000000003</c:v>
+                  <c:v>0.65500000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2702,34 +2703,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2741,37 +2742,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>15.9</c:v>
+                  <c:v>2.19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.363636</c:v>
+                  <c:v>2.3533330000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.416667</c:v>
+                  <c:v>2.2850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.461538000000001</c:v>
+                  <c:v>2.552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.571428999999998</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.666667</c:v>
+                  <c:v>2.422857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.4375</c:v>
+                  <c:v>2.4474999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.294118000000001</c:v>
+                  <c:v>2.2422219999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.888888999999999</c:v>
+                  <c:v>2.266</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.421053000000001</c:v>
+                  <c:v>2.4781819999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>2.5833330000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2805,34 +2806,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2844,37 +2845,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.93</c:v>
+                  <c:v>4.97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.263636</c:v>
+                  <c:v>4.8666669999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0249999999999999</c:v>
+                  <c:v>1.9650000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73846199999999995</c:v>
+                  <c:v>2.1480000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2357140000000002</c:v>
+                  <c:v>1.5633330000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.433333</c:v>
+                  <c:v>1.5314289999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7625</c:v>
+                  <c:v>1.6174999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1647059999999998</c:v>
+                  <c:v>1.2422219999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1277779999999999</c:v>
+                  <c:v>2.8180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91052599999999995</c:v>
+                  <c:v>1.187273</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.33</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2908,34 +2909,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2947,37 +2948,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.78</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51666699999999999</c:v>
+                  <c:v>0.64500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70769199999999999</c:v>
+                  <c:v>0.57199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67142900000000005</c:v>
+                  <c:v>0.62666699999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51333300000000004</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48749999999999999</c:v>
+                  <c:v>0.63500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.82941200000000004</c:v>
+                  <c:v>0.60444399999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61111099999999996</c:v>
+                  <c:v>0.58199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82631600000000005</c:v>
+                  <c:v>0.570909</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.85</c:v>
+                  <c:v>0.60833300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3011,34 +3012,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3050,37 +3051,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.07</c:v>
+                  <c:v>1.1100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57272699999999999</c:v>
+                  <c:v>1.566667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51666699999999999</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98461500000000002</c:v>
+                  <c:v>1.1919999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.885714</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.54</c:v>
+                  <c:v>0.97428599999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99375000000000002</c:v>
+                  <c:v>1.2775000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71764700000000003</c:v>
+                  <c:v>1.1133329999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7222219999999999</c:v>
+                  <c:v>1.4379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6421049999999999</c:v>
+                  <c:v>1.407273</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.86499999999999999</c:v>
+                  <c:v>1.2583329999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3114,34 +3115,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3153,37 +3154,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.77</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1454549999999999</c:v>
+                  <c:v>0.98666699999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.558333</c:v>
+                  <c:v>1.905</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3</c:v>
+                  <c:v>1.1879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.142857</c:v>
+                  <c:v>1.0966670000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92666700000000002</c:v>
+                  <c:v>1.014286</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.875</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1117649999999999</c:v>
+                  <c:v>1.3466670000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1222220000000001</c:v>
+                  <c:v>1.506</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.210526</c:v>
+                  <c:v>1.332727</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.86</c:v>
+                  <c:v>1.2450000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3217,34 +3218,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3256,37 +3257,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.897959</c:v>
+                  <c:v>1.1612899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99090900000000004</c:v>
+                  <c:v>1.74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2749999999999999</c:v>
+                  <c:v>1.873737</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.578125</c:v>
+                  <c:v>1.6113360000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.764286</c:v>
+                  <c:v>2.10101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6866669999999999</c:v>
+                  <c:v>2.3644310000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88124999999999998</c:v>
+                  <c:v>2.7329970000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.558824</c:v>
+                  <c:v>2.257336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6723159999999999</c:v>
+                  <c:v>2.9114689999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.494737</c:v>
+                  <c:v>2.1404489999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.608247</c:v>
+                  <c:v>2.4249149999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3320,34 +3321,34 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3359,37 +3360,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.32</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58181799999999995</c:v>
+                  <c:v>1.193333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.84499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0930230000000001</c:v>
+                  <c:v>0.85199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45714300000000002</c:v>
+                  <c:v>0.89562299999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2567569999999999</c:v>
+                  <c:v>0.91428600000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97484300000000002</c:v>
+                  <c:v>0.88607599999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0235289999999999</c:v>
+                  <c:v>0.92666700000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2134830000000001</c:v>
+                  <c:v>1.060241</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91052599999999995</c:v>
+                  <c:v>0.90545500000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47499999999999998</c:v>
+                  <c:v>0.99499199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3406,11 +3407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94689280"/>
-        <c:axId val="64542336"/>
+        <c:axId val="120625152"/>
+        <c:axId val="76658880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94689280"/>
+        <c:axId val="120625152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3420,7 +3421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64542336"/>
+        <c:crossAx val="76658880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3428,7 +3429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64542336"/>
+        <c:axId val="76658880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,13 +3440,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94689280"/>
+        <c:crossAx val="120625152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3858,9 +3860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3881,17 +3881,17 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3912,681 +3912,681 @@
         <v>10</v>
       </c>
       <c r="B1">
-        <v>476.2</v>
+        <v>528.79999999999995</v>
       </c>
       <c r="D1">
         <v>10</v>
       </c>
       <c r="E1">
-        <v>517</v>
+        <v>368.2</v>
       </c>
       <c r="G1">
         <v>10</v>
       </c>
       <c r="H1">
-        <v>1164.4000000000001</v>
+        <v>1014.3</v>
       </c>
       <c r="J1">
         <v>10</v>
       </c>
       <c r="K1">
-        <v>228.7</v>
+        <v>135.69999999999999</v>
       </c>
       <c r="M1">
         <v>10</v>
       </c>
       <c r="N1">
-        <v>3615.1</v>
+        <v>3573.9</v>
       </c>
       <c r="P1">
         <v>10</v>
       </c>
       <c r="Q1">
-        <v>442.4</v>
+        <v>349.5</v>
       </c>
       <c r="S1">
         <v>10</v>
       </c>
       <c r="T1">
-        <v>484.7</v>
+        <v>355.5</v>
       </c>
       <c r="V1">
         <v>10</v>
       </c>
       <c r="W1">
-        <v>477.5</v>
+        <v>358.6</v>
       </c>
       <c r="Y1">
         <v>10</v>
       </c>
       <c r="Z1">
-        <v>526.29999999999995</v>
+        <v>939.5</v>
       </c>
       <c r="AB1">
         <v>10</v>
       </c>
       <c r="AC1">
-        <v>378.3</v>
+        <v>322.60000000000002</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>503.18181800000002</v>
+        <v>610.26666699999998</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>552.63636399999996</v>
+        <v>516.66666699999996</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H2">
-        <v>1294.636364</v>
+        <v>1774</v>
       </c>
       <c r="J2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K2">
-        <v>233.727273</v>
+        <v>138.533333</v>
       </c>
       <c r="M2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N2">
-        <v>564.81818199999998</v>
+        <v>560.66666699999996</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q2">
-        <v>521.90909099999999</v>
+        <v>523.4</v>
       </c>
       <c r="S2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T2">
-        <v>516.45454500000005</v>
+        <v>495</v>
       </c>
       <c r="V2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W2">
-        <v>501.81818199999998</v>
+        <v>520.93333299999995</v>
       </c>
       <c r="Y2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z2">
-        <v>379.36363599999999</v>
+        <v>408.73333300000002</v>
       </c>
       <c r="AB2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AC2">
-        <v>420.09090900000001</v>
+        <v>480.2</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>613.33333300000004</v>
+        <v>798.35</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>604.5</v>
+        <v>689.4</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>1434.666667</v>
+        <v>2016.4</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>233.41666699999999</v>
+        <v>150.94999999999999</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N3">
-        <v>561.66666699999996</v>
+        <v>663.6</v>
       </c>
       <c r="P3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q3">
-        <v>514.91666699999996</v>
+        <v>673.1</v>
       </c>
       <c r="S3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="T3">
-        <v>674.5</v>
+        <v>685.2</v>
       </c>
       <c r="V3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="W3">
+        <v>677.45</v>
+      </c>
+      <c r="Y3">
+        <v>20</v>
+      </c>
+      <c r="Z3">
+        <v>634.9</v>
+      </c>
+      <c r="AB3">
+        <v>20</v>
+      </c>
+      <c r="AC3">
         <v>571.75</v>
-      </c>
-      <c r="Y3">
-        <v>12</v>
-      </c>
-      <c r="Z3">
-        <v>399.5</v>
-      </c>
-      <c r="AB3">
-        <v>12</v>
-      </c>
-      <c r="AC3">
-        <v>461.41666700000002</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>637.53846199999998</v>
+        <v>948.32</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>638.38461500000005</v>
+        <v>848.12</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>1416.3076920000001</v>
+        <v>2607.3200000000002</v>
       </c>
       <c r="J4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>242</v>
+        <v>142.47999999999999</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N4">
-        <v>584.23076900000001</v>
+        <v>832.32</v>
       </c>
       <c r="P4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q4">
-        <v>570.46153800000002</v>
+        <v>785.92</v>
       </c>
       <c r="S4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="T4">
-        <v>532.69230800000003</v>
+        <v>774.48</v>
       </c>
       <c r="V4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="W4">
-        <v>603.92307700000003</v>
+        <v>797.72</v>
       </c>
       <c r="Y4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Z4">
-        <v>537.38461500000005</v>
+        <v>744.12</v>
       </c>
       <c r="AB4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AC4">
-        <v>496.84615400000001</v>
+        <v>771.12</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>668.78571399999998</v>
+        <v>1005.833333</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>648.85714299999995</v>
+        <v>974.5</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>1476.857143</v>
+        <v>3116.833333</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>237.92857100000001</v>
+        <v>147.466667</v>
       </c>
       <c r="M5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N5">
-        <v>625.71428600000002</v>
+        <v>989.03333299999997</v>
       </c>
       <c r="P5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q5">
-        <v>581.14285700000005</v>
+        <v>950.2</v>
       </c>
       <c r="S5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="T5">
-        <v>575.92857100000003</v>
+        <v>1075.2</v>
       </c>
       <c r="V5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="W5">
-        <v>590</v>
+        <v>974.13333299999999</v>
       </c>
       <c r="Y5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Z5">
-        <v>563.35714299999995</v>
+        <v>821.56666700000005</v>
       </c>
       <c r="AB5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AC5">
-        <v>440.5</v>
+        <v>925.16666699999996</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B6">
-        <v>692.06666700000005</v>
+        <v>1314.9142859999999</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>670.2</v>
+        <v>1161.6571429999999</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>1627.4666669999999</v>
+        <v>3587.2571429999998</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>236.86666700000001</v>
+        <v>147.085714</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N6">
-        <v>687.46666700000003</v>
+        <v>1141.6571429999999</v>
       </c>
       <c r="P6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Q6">
-        <v>633.46666700000003</v>
+        <v>1095.857143</v>
       </c>
       <c r="S6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="T6">
-        <v>681.86666700000001</v>
+        <v>1143.4571430000001</v>
       </c>
       <c r="V6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="W6">
-        <v>659.33333300000004</v>
+        <v>1161.142857</v>
       </c>
       <c r="Y6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Z6">
-        <v>503.13333299999999</v>
+        <v>976.8</v>
       </c>
       <c r="AB6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AC6">
-        <v>591.06666700000005</v>
+        <v>1170.7142859999999</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B7">
-        <v>696.6875</v>
+        <v>1382.4</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>682</v>
+        <v>1349.4</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>1788.1875</v>
+        <v>4149.4750000000004</v>
       </c>
       <c r="J7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>249.375</v>
+        <v>147.15</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N7">
-        <v>689.25</v>
+        <v>1336</v>
       </c>
       <c r="P7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="Q7">
-        <v>679.8125</v>
+        <v>1324.85</v>
       </c>
       <c r="S7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="T7">
-        <v>653.1875</v>
+        <v>1275.125</v>
       </c>
       <c r="V7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="W7">
-        <v>647.0625</v>
+        <v>1207.4749999999999</v>
       </c>
       <c r="Y7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="Z7">
-        <v>545.125</v>
+        <v>1046.5999999999999</v>
       </c>
       <c r="AB7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AC7">
-        <v>595.75</v>
+        <v>1190.45</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B8">
-        <v>750.70588199999997</v>
+        <v>1664.377778</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E8">
-        <v>705.47058800000002</v>
+        <v>1391.9777779999999</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H8">
-        <v>1878.176471</v>
+        <v>4570.9777780000004</v>
       </c>
       <c r="J8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>239.64705900000001</v>
+        <v>142.11111099999999</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N8">
-        <v>745.11764700000003</v>
+        <v>1508.355556</v>
       </c>
       <c r="P8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="Q8">
-        <v>751.05882399999996</v>
+        <v>1444.1555559999999</v>
       </c>
       <c r="S8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="T8">
-        <v>722.23529399999995</v>
+        <v>1374.444444</v>
       </c>
       <c r="V8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="W8">
-        <v>693.52941199999998</v>
+        <v>1422</v>
       </c>
       <c r="Y8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="Z8">
-        <v>610.05882399999996</v>
+        <v>1220.133333</v>
       </c>
       <c r="AB8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AC8">
-        <v>563.94117600000004</v>
+        <v>1357.5777780000001</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>778.44444399999998</v>
+        <v>1734.2</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E9">
-        <v>772.11111100000005</v>
+        <v>1590.84</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>1968.1111109999999</v>
+        <v>5382.14</v>
       </c>
       <c r="J9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>248.444444</v>
+        <v>151.84</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="N9">
-        <v>769.05555600000002</v>
+        <v>1577.18</v>
       </c>
       <c r="P9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Q9">
-        <v>717.72222199999999</v>
+        <v>1605.4</v>
       </c>
       <c r="S9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="T9">
-        <v>717.94444399999998</v>
+        <v>1597.76</v>
       </c>
       <c r="V9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="W9">
-        <v>768.61111100000005</v>
+        <v>1540.38</v>
       </c>
       <c r="Y9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Z9">
-        <v>668.72222199999999</v>
+        <v>1319.52</v>
       </c>
       <c r="AB9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="AC9">
-        <v>635</v>
+        <v>1468.46</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B10">
-        <v>784.684211</v>
+        <v>1704.963636</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E10">
-        <v>759.57894699999997</v>
+        <v>1823.4</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H10">
-        <v>2077.1578949999998</v>
+        <v>5423.3272729999999</v>
       </c>
       <c r="J10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>241.94736800000001</v>
+        <v>149.03636399999999</v>
       </c>
       <c r="M10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N10">
-        <v>790.73684200000002</v>
+        <v>1759.8727269999999</v>
       </c>
       <c r="P10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="Q10">
-        <v>721.73684200000002</v>
+        <v>1701.254545</v>
       </c>
       <c r="S10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="T10">
-        <v>763.42105300000003</v>
+        <v>1758.3090910000001</v>
       </c>
       <c r="V10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="W10">
-        <v>798.47368400000005</v>
+        <v>1767.818182</v>
       </c>
       <c r="Y10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="Z10">
-        <v>632.36842100000001</v>
+        <v>1469.6545450000001</v>
       </c>
       <c r="AB10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AC10">
-        <v>636.52631599999995</v>
+        <v>1644.6909089999999</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B11">
-        <v>879.95</v>
+        <v>2118.0166669999999</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E11">
-        <v>806.8</v>
+        <v>1938.75</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H11">
-        <v>2228</v>
+        <v>5596.2666669999999</v>
       </c>
       <c r="J11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K11">
-        <v>243.7</v>
+        <v>146.23333299999999</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N11">
-        <v>860.55</v>
+        <v>1873.916667</v>
       </c>
       <c r="P11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q11">
-        <v>831.2</v>
+        <v>1926.35</v>
       </c>
       <c r="S11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="T11">
-        <v>825.1</v>
+        <v>1890.2666670000001</v>
       </c>
       <c r="V11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="W11">
-        <v>795</v>
+        <v>1863.7333329999999</v>
       </c>
       <c r="Y11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Z11">
-        <v>867.2</v>
+        <v>1603.2333329999999</v>
       </c>
       <c r="AB11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AC11">
-        <v>795.15</v>
+        <v>1759.9666669999999</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -4649,9 +4649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4660,681 +4658,681 @@
         <v>10</v>
       </c>
       <c r="B1">
-        <v>469.2</v>
+        <v>14.72</v>
       </c>
       <c r="D1">
         <v>10</v>
       </c>
       <c r="E1">
-        <v>504</v>
+        <v>3.48</v>
       </c>
       <c r="G1">
         <v>10</v>
       </c>
       <c r="H1">
-        <v>11.85</v>
+        <v>0.93</v>
       </c>
       <c r="J1">
         <v>10</v>
       </c>
       <c r="K1">
-        <v>223.3</v>
+        <v>6.28</v>
       </c>
       <c r="M1">
         <v>10</v>
       </c>
       <c r="N1">
-        <v>601.70000000000005</v>
+        <v>13.027272999999999</v>
       </c>
       <c r="P1">
         <v>10</v>
       </c>
       <c r="Q1">
-        <v>428.8</v>
+        <v>2.9</v>
       </c>
       <c r="S1">
         <v>10</v>
       </c>
       <c r="T1">
-        <v>472.8</v>
+        <v>4.236364</v>
       </c>
       <c r="V1">
         <v>10</v>
       </c>
       <c r="W1">
-        <v>467.8</v>
+        <v>3.6090909999999998</v>
       </c>
       <c r="Y1">
         <v>10</v>
       </c>
       <c r="Z1">
-        <v>6.663265</v>
+        <v>7.505376</v>
       </c>
       <c r="AB1">
         <v>10</v>
       </c>
       <c r="AC1">
-        <v>7.51</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>496.36363599999999</v>
+        <v>7.5333329999999998</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>543.18181800000002</v>
+        <v>4.12</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H2">
-        <v>12.054544999999999</v>
+        <v>0.906667</v>
       </c>
       <c r="J2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K2">
-        <v>232.81818200000001</v>
+        <v>6.5133330000000003</v>
       </c>
       <c r="M2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N2">
-        <v>554.36363600000004</v>
+        <v>11.678788000000001</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q2">
-        <v>510.90909099999999</v>
+        <v>4.0484850000000003</v>
       </c>
       <c r="S2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T2">
-        <v>506.545455</v>
+        <v>5.206061</v>
       </c>
       <c r="V2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W2">
-        <v>487.72727300000003</v>
+        <v>4.1757580000000001</v>
       </c>
       <c r="Y2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z2">
-        <v>9.5545449999999992</v>
+        <v>16.153333</v>
       </c>
       <c r="AB2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AC2">
-        <v>11.827273</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>596.83333300000004</v>
+        <v>5.9749999999999996</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>588.75</v>
+        <v>5.05</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>12.35</v>
+        <v>0.85</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>229.41666699999999</v>
+        <v>6.4349999999999996</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N3">
-        <v>552.75</v>
+        <v>5.7181819999999997</v>
       </c>
       <c r="P3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q3">
-        <v>502.91666700000002</v>
+        <v>4.05</v>
       </c>
       <c r="S3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="T3">
-        <v>665.66666699999996</v>
+        <v>5.3863640000000004</v>
       </c>
       <c r="V3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="W3">
-        <v>560.08333300000004</v>
+        <v>5.3227270000000004</v>
       </c>
       <c r="Y3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Z3">
-        <v>8.4</v>
+        <v>17.348485</v>
       </c>
       <c r="AB3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AC3">
-        <v>10.725</v>
+        <v>17.445</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>635.07692299999997</v>
+        <v>5.22</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>631</v>
+        <v>4.8760000000000003</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>10.8</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="J4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>231.53846200000001</v>
+        <v>6.7839999999999998</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N4">
-        <v>575.30769199999997</v>
+        <v>7.9018179999999996</v>
       </c>
       <c r="P4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q4">
-        <v>563.23076900000001</v>
+        <v>4.763636</v>
       </c>
       <c r="S4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="T4">
-        <v>522.07692299999997</v>
+        <v>6.0727270000000004</v>
       </c>
       <c r="V4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="W4">
-        <v>599.30769199999997</v>
+        <v>5.1818179999999998</v>
       </c>
       <c r="Y4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Z4">
-        <v>6.953125</v>
+        <v>17.902833999999999</v>
       </c>
       <c r="AB4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AC4">
-        <v>12.147287</v>
+        <v>40.927999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>656.35714299999995</v>
+        <v>5.83</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>634.14285700000005</v>
+        <v>5.2933329999999996</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>10.692857</v>
+        <v>0.843333</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>232.64285699999999</v>
+        <v>6.9866669999999997</v>
       </c>
       <c r="M5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N5">
-        <v>614.85714299999995</v>
+        <v>5.8787880000000001</v>
       </c>
       <c r="P5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q5">
-        <v>575</v>
+        <v>4.4727269999999999</v>
       </c>
       <c r="S5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="T5">
-        <v>560.35714299999995</v>
+        <v>11.133333</v>
       </c>
       <c r="V5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="W5">
-        <v>585.14285700000005</v>
+        <v>5.6212119999999999</v>
       </c>
       <c r="Y5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Z5">
-        <v>15.192857</v>
+        <v>26.579125000000001</v>
       </c>
       <c r="AB5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AC5">
-        <v>8.1999999999999993</v>
+        <v>47.882154999999997</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B6">
-        <v>676.33333300000004</v>
+        <v>5.88</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>659.66666699999996</v>
+        <v>6.0257139999999998</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>10.92</v>
+        <v>0.882857</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>234.13333299999999</v>
+        <v>7.06</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N6">
-        <v>673.8</v>
+        <v>6.841558</v>
       </c>
       <c r="P6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Q6">
-        <v>618</v>
+        <v>5.6493510000000002</v>
       </c>
       <c r="S6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="T6">
-        <v>664.73333300000002</v>
+        <v>6.2441560000000003</v>
       </c>
       <c r="V6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="W6">
-        <v>639.53333299999997</v>
+        <v>5.3298699999999997</v>
       </c>
       <c r="Y6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Z6">
-        <v>12.886666999999999</v>
+        <v>26.696793</v>
       </c>
       <c r="AB6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AC6">
-        <v>8.905405</v>
+        <v>70.44</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B7">
-        <v>689.125</v>
+        <v>11.9275</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>674</v>
+        <v>9.3949999999999996</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>11.5</v>
+        <v>0.98</v>
       </c>
       <c r="J7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>240.875</v>
+        <v>6.9874999999999998</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N7">
-        <v>683.625</v>
+        <v>13</v>
       </c>
       <c r="P7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="Q7">
-        <v>672</v>
+        <v>7.6159090000000003</v>
       </c>
       <c r="S7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="T7">
-        <v>648.0625</v>
+        <v>6.4022730000000001</v>
       </c>
       <c r="V7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="W7">
-        <v>632.8125</v>
+        <v>5.9681819999999997</v>
       </c>
       <c r="Y7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="Z7">
-        <v>13.49375</v>
+        <v>32.095717999999998</v>
       </c>
       <c r="AB7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AC7">
-        <v>12.031447</v>
+        <v>58.197468000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B8">
-        <v>740.52941199999998</v>
+        <v>8.0822219999999998</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E8">
-        <v>701.11764700000003</v>
+        <v>7.3111110000000004</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H8">
-        <v>11.288235</v>
+        <v>0.88666699999999998</v>
       </c>
       <c r="J8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>234.588235</v>
+        <v>6.0955560000000002</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N8">
-        <v>709.82352900000001</v>
+        <v>6.9939390000000001</v>
       </c>
       <c r="P8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="Q8">
-        <v>743.17647099999999</v>
+        <v>6.0949489999999997</v>
       </c>
       <c r="S8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="T8">
-        <v>705.58823500000005</v>
+        <v>6.8323229999999997</v>
       </c>
       <c r="V8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="W8">
-        <v>678.76470600000005</v>
+        <v>6.4202019999999997</v>
       </c>
       <c r="Y8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="Z8">
-        <v>14.023529</v>
+        <v>42.826185000000002</v>
       </c>
       <c r="AB8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AC8">
-        <v>13.658823999999999</v>
+        <v>97.397778000000002</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>765.5</v>
+        <v>9.1259999999999994</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E9">
-        <v>761.05555600000002</v>
+        <v>8.2140000000000004</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>11.011111</v>
+        <v>0.8</v>
       </c>
       <c r="J9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>245</v>
+        <v>6.52</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="N9">
-        <v>747.77777800000001</v>
+        <v>12.425454999999999</v>
       </c>
       <c r="P9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Q9">
-        <v>705.44444399999998</v>
+        <v>6.4818179999999996</v>
       </c>
       <c r="S9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="T9">
-        <v>710.61111100000005</v>
+        <v>7.6345450000000001</v>
       </c>
       <c r="V9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="W9">
-        <v>753.83333300000004</v>
+        <v>7.3145449999999999</v>
       </c>
       <c r="Y9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Z9">
-        <v>12.129944</v>
+        <v>49.486922</v>
       </c>
       <c r="AB9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="AC9">
-        <v>11.286517</v>
+        <v>98.536145000000005</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B10">
-        <v>769.52631599999995</v>
+        <v>8.2690909999999995</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E10">
-        <v>755.315789</v>
+        <v>9.263636</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H10">
-        <v>11.168421</v>
+        <v>0.83818199999999998</v>
       </c>
       <c r="J10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>242.263158</v>
+        <v>7.0218179999999997</v>
       </c>
       <c r="M10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N10">
-        <v>780.84210499999995</v>
+        <v>6.8264459999999998</v>
       </c>
       <c r="P10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="Q10">
-        <v>709.315789</v>
+        <v>6.7537190000000002</v>
       </c>
       <c r="S10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="T10">
-        <v>746.26315799999998</v>
+        <v>8.5801649999999992</v>
       </c>
       <c r="V10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="W10">
-        <v>783.21052599999996</v>
+        <v>7.4826449999999998</v>
       </c>
       <c r="Y10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="Z10">
-        <v>13.910526000000001</v>
+        <v>48.591760000000001</v>
       </c>
       <c r="AB10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AC10">
-        <v>16.936841999999999</v>
+        <v>105.925455</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B11">
-        <v>873.3</v>
+        <v>7.5066670000000002</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E11">
-        <v>792.65</v>
+        <v>8.9183330000000005</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H11">
-        <v>11.31</v>
+        <v>0.86333300000000002</v>
       </c>
       <c r="J11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K11">
-        <v>238.75</v>
+        <v>6.8333329999999997</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N11">
-        <v>846.2</v>
+        <v>8.9227270000000001</v>
       </c>
       <c r="P11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q11">
-        <v>811.05</v>
+        <v>6.9393940000000001</v>
       </c>
       <c r="S11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="T11">
-        <v>808.9</v>
+        <v>7.5893940000000004</v>
       </c>
       <c r="V11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="W11">
-        <v>787.85</v>
+        <v>8.6803030000000003</v>
       </c>
       <c r="Y11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Z11">
-        <v>18.010308999999999</v>
+        <v>58.889077999999998</v>
       </c>
       <c r="AB11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AC11">
-        <v>26.945</v>
+        <v>129.88480799999999</v>
       </c>
     </row>
   </sheetData>
@@ -5347,7 +5345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
@@ -5358,681 +5356,681 @@
         <v>10</v>
       </c>
       <c r="B1">
-        <v>2.02</v>
+        <v>2.79</v>
       </c>
       <c r="D1">
         <v>10</v>
       </c>
       <c r="E1">
-        <v>1.0900000000000001</v>
+        <v>1.38</v>
       </c>
       <c r="G1">
         <v>10</v>
       </c>
       <c r="H1">
-        <v>1.41</v>
+        <v>0.67</v>
       </c>
       <c r="J1">
         <v>10</v>
       </c>
       <c r="K1">
-        <v>15.9</v>
+        <v>2.19</v>
       </c>
       <c r="M1">
         <v>10</v>
       </c>
       <c r="N1">
-        <v>3.93</v>
+        <v>4.97</v>
       </c>
       <c r="P1">
         <v>10</v>
       </c>
       <c r="Q1">
-        <v>0.78</v>
+        <v>0.53</v>
       </c>
       <c r="S1">
         <v>10</v>
       </c>
       <c r="T1">
-        <v>1.07</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="V1">
         <v>10</v>
       </c>
       <c r="W1">
-        <v>0.77</v>
+        <v>1.04</v>
       </c>
       <c r="Y1">
         <v>10</v>
       </c>
       <c r="Z1">
-        <v>1.897959</v>
+        <v>1.1612899999999999</v>
       </c>
       <c r="AB1">
         <v>10</v>
       </c>
       <c r="AC1">
-        <v>0.32</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>1.118182</v>
+        <v>4.9133329999999997</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>0.56363600000000003</v>
+        <v>1.413333</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H2">
-        <v>0.56363600000000003</v>
+        <v>0.68666700000000003</v>
       </c>
       <c r="J2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K2">
-        <v>13.363636</v>
+        <v>2.3533330000000001</v>
       </c>
       <c r="M2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N2">
-        <v>3.263636</v>
+        <v>4.8666669999999996</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q2">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="S2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T2">
-        <v>0.57272699999999999</v>
+        <v>1.566667</v>
       </c>
       <c r="V2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W2">
-        <v>1.1454549999999999</v>
+        <v>0.98666699999999996</v>
       </c>
       <c r="Y2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z2">
-        <v>0.99090900000000004</v>
+        <v>1.74</v>
       </c>
       <c r="AB2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AC2">
-        <v>0.58181799999999995</v>
+        <v>1.193333</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>1.1583330000000001</v>
+        <v>2.5350000000000001</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>0.65833299999999995</v>
+        <v>1.68</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>0.51666699999999999</v>
+        <v>0.65</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>18.416667</v>
+        <v>2.2850000000000001</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N3">
-        <v>1.0249999999999999</v>
+        <v>1.9650000000000001</v>
       </c>
       <c r="P3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q3">
-        <v>0.51666699999999999</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="S3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="T3">
-        <v>0.51666699999999999</v>
+        <v>0.97</v>
       </c>
       <c r="V3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="W3">
-        <v>1.558333</v>
+        <v>1.905</v>
       </c>
       <c r="Y3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Z3">
-        <v>1.2749999999999999</v>
+        <v>1.873737</v>
       </c>
       <c r="AB3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AC3">
-        <v>0.5</v>
+        <v>0.84499999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>1.776923</v>
+        <v>1.492</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>0.36153800000000003</v>
+        <v>1.4319999999999999</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>0.85384599999999999</v>
+        <v>0.6</v>
       </c>
       <c r="J4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>17.461538000000001</v>
+        <v>2.552</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N4">
-        <v>0.73846199999999995</v>
+        <v>2.1480000000000001</v>
       </c>
       <c r="P4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q4">
-        <v>0.70769199999999999</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="S4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="T4">
-        <v>0.98461500000000002</v>
+        <v>1.1919999999999999</v>
       </c>
       <c r="V4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="W4">
-        <v>1.3</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="Y4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Z4">
-        <v>1.578125</v>
+        <v>1.6113360000000001</v>
       </c>
       <c r="AB4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AC4">
-        <v>1.0930230000000001</v>
+        <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>1.7785709999999999</v>
+        <v>1.9166669999999999</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>1.0071429999999999</v>
+        <v>1.296667</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>0.33571400000000001</v>
+        <v>0.656667</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>18.571428999999998</v>
+        <v>2.36</v>
       </c>
       <c r="M5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N5">
-        <v>2.2357140000000002</v>
+        <v>1.5633330000000001</v>
       </c>
       <c r="P5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q5">
-        <v>0.67142900000000005</v>
+        <v>0.62666699999999997</v>
       </c>
       <c r="S5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="T5">
-        <v>0.885714</v>
+        <v>1.02</v>
       </c>
       <c r="V5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="W5">
-        <v>1.142857</v>
+        <v>1.0966670000000001</v>
       </c>
       <c r="Y5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Z5">
-        <v>1.764286</v>
+        <v>2.10101</v>
       </c>
       <c r="AB5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AC5">
-        <v>0.45714300000000002</v>
+        <v>0.89562299999999995</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B6">
-        <v>1.26</v>
+        <v>2.0114290000000001</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>1.253333</v>
+        <v>1.245714</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>0.73333300000000001</v>
+        <v>0.67142900000000005</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>15.666667</v>
+        <v>2.422857</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N6">
-        <v>1.433333</v>
+        <v>1.5314289999999999</v>
       </c>
       <c r="P6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Q6">
-        <v>0.51333300000000004</v>
+        <v>0.68</v>
       </c>
       <c r="S6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="T6">
-        <v>1.54</v>
+        <v>0.97428599999999999</v>
       </c>
       <c r="V6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="W6">
-        <v>0.92666700000000002</v>
+        <v>1.014286</v>
       </c>
       <c r="Y6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Z6">
-        <v>1.6866669999999999</v>
+        <v>2.3644310000000002</v>
       </c>
       <c r="AB6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AC6">
-        <v>1.2567569999999999</v>
+        <v>0.91428600000000004</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B7">
-        <v>2.3187500000000001</v>
+        <v>6.69</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>1.25</v>
+        <v>2.4249999999999998</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>0.6875</v>
+        <v>0.65749999999999997</v>
       </c>
       <c r="J7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>23.4375</v>
+        <v>2.4474999999999998</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N7">
-        <v>1.7625</v>
+        <v>1.6174999999999999</v>
       </c>
       <c r="P7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="Q7">
-        <v>0.48749999999999999</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="S7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="T7">
-        <v>0.99375000000000002</v>
+        <v>1.2775000000000001</v>
       </c>
       <c r="V7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="W7">
-        <v>0.875</v>
+        <v>1.06</v>
       </c>
       <c r="Y7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="Z7">
-        <v>0.88124999999999998</v>
+        <v>2.7329970000000001</v>
       </c>
       <c r="AB7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AC7">
-        <v>0.97484300000000002</v>
+        <v>0.88607599999999997</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B8">
-        <v>1.017647</v>
+        <v>1.4466669999999999</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E8">
-        <v>0.84117600000000003</v>
+        <v>1.586667</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H8">
-        <v>0.64705900000000005</v>
+        <v>0.68888899999999997</v>
       </c>
       <c r="J8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>22.294118000000001</v>
+        <v>2.2422219999999999</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N8">
-        <v>2.1647059999999998</v>
+        <v>1.2422219999999999</v>
       </c>
       <c r="P8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="Q8">
-        <v>0.82941200000000004</v>
+        <v>0.60444399999999998</v>
       </c>
       <c r="S8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="T8">
-        <v>0.71764700000000003</v>
+        <v>1.1133329999999999</v>
       </c>
       <c r="V8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="W8">
-        <v>1.1117649999999999</v>
+        <v>1.3466670000000001</v>
       </c>
       <c r="Y8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="Z8">
-        <v>1.558824</v>
+        <v>2.257336</v>
       </c>
       <c r="AB8">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AC8">
-        <v>1.0235289999999999</v>
+        <v>0.92666700000000002</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>1.5611109999999999</v>
+        <v>2.048</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E9">
-        <v>1.3111109999999999</v>
+        <v>1.51</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>0.52777799999999997</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="J9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>17.888888999999999</v>
+        <v>2.266</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="N9">
-        <v>1.1277779999999999</v>
+        <v>2.8180000000000001</v>
       </c>
       <c r="P9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Q9">
-        <v>0.61111099999999996</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="S9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="T9">
-        <v>1.7222219999999999</v>
+        <v>1.4379999999999999</v>
       </c>
       <c r="V9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="W9">
-        <v>1.1222220000000001</v>
+        <v>1.506</v>
       </c>
       <c r="Y9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Z9">
-        <v>1.6723159999999999</v>
+        <v>2.9114689999999999</v>
       </c>
       <c r="AB9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="AC9">
-        <v>1.2134830000000001</v>
+        <v>1.060241</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B10">
-        <v>1.731579</v>
+        <v>1.8145450000000001</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E10">
-        <v>1.1473679999999999</v>
+        <v>1.387273</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H10">
-        <v>1.057895</v>
+        <v>0.64909099999999997</v>
       </c>
       <c r="J10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>18.421053000000001</v>
+        <v>2.4781819999999999</v>
       </c>
       <c r="M10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N10">
-        <v>0.91052599999999995</v>
+        <v>1.187273</v>
       </c>
       <c r="P10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="Q10">
-        <v>0.82631600000000005</v>
+        <v>0.570909</v>
       </c>
       <c r="S10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="T10">
-        <v>1.6421049999999999</v>
+        <v>1.407273</v>
       </c>
       <c r="V10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="W10">
-        <v>1.210526</v>
+        <v>1.332727</v>
       </c>
       <c r="Y10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="Z10">
-        <v>1.494737</v>
+        <v>2.1404489999999998</v>
       </c>
       <c r="AB10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AC10">
-        <v>0.91052599999999995</v>
+        <v>0.90545500000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B11">
-        <v>1.56</v>
+        <v>1.851667</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E11">
-        <v>0.87</v>
+        <v>1.7833330000000001</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H11">
-        <v>0.78500000000000003</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="J11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K11">
-        <v>18.600000000000001</v>
+        <v>2.5833330000000001</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N11">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q11">
-        <v>0.85</v>
+        <v>0.60833300000000001</v>
       </c>
       <c r="S11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="T11">
-        <v>0.86499999999999999</v>
+        <v>1.2583329999999999</v>
       </c>
       <c r="V11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="W11">
-        <v>0.86</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="Y11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Z11">
-        <v>1.608247</v>
+        <v>2.4249149999999999</v>
       </c>
       <c r="AB11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AC11">
-        <v>0.47499999999999998</v>
+        <v>0.99499199999999999</v>
       </c>
     </row>
   </sheetData>
